--- a/Config/Datas/Turret.xlsx
+++ b/Config/Datas/Turret.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779450A7-1C6B-4C10-9C1D-6E73CE639099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +59,25 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,16 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +417,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -418,18 +434,21 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -438,11 +457,14 @@
       </c>
       <c r="D5">
         <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>